--- a/recognized_sets/recognized_multyclass.xlsx
+++ b/recognized_sets/recognized_multyclass.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\MisaTelegramBot\recognized_sets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>text</t>
   </si>
@@ -33,14 +28,44 @@
     <t>дело</t>
   </si>
   <si>
+    <t>погода</t>
+  </si>
+  <si>
+    <t>как   дело ?</t>
+  </si>
+  <si>
+    <t>фуфпыфпыф</t>
+  </si>
+  <si>
+    <t>фырпфыпф</t>
+  </si>
+  <si>
+    <t>добираться сюда</t>
+  </si>
+  <si>
+    <t>дообучаться</t>
+  </si>
+  <si>
+    <t>даров</t>
+  </si>
+  <si>
     <t>Дело</t>
+  </si>
+  <si>
+    <t>Погода</t>
+  </si>
+  <si>
+    <t>Вопрос</t>
+  </si>
+  <si>
+    <t>Нет классификации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,14 +128,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,10 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,16 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,15 +433,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/recognized_sets/recognized_multyclass.xlsx
+++ b/recognized_sets/recognized_multyclass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>text</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>даров</t>
+  </si>
+  <si>
+    <t>привея</t>
+  </si>
+  <si>
+    <t>запорашивать нахальный пух</t>
   </si>
   <si>
     <t>Дело</t>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -449,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -460,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -471,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -482,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -493,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -504,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -515,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -526,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -537,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -548,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -559,10 +565,161 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/recognized_sets/recognized_multyclass.xlsx
+++ b/recognized_sets/recognized_multyclass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>text</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,6 +769,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/recognized_sets/recognized_multyclass.xlsx
+++ b/recognized_sets/recognized_multyclass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
   <si>
     <t>text</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -791,6 +791,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
